--- a/관리산출물/관리산출물PMP_PSP/PSP/김예지/신수동크러셔_psp_20150531_김예지.xlsx
+++ b/관리산출물/관리산출물PMP_PSP/PSP/김예지/신수동크러셔_psp_20150531_김예지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home\관리산출물\관리산출물PMP PSP\PSP\김예지\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeoj\Desktop\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE18A33-FACA-4D12-B036-7B2EE228DBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5642009-494C-41E7-8E5D-E096CD5D97FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김예지" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Table C16Time Recording Log</t>
   </si>
@@ -217,26 +217,305 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>2019.10.28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 준비</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 준비 및 피드백</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SRS 최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른조 SRS 리뷰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>추천알고리즘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 리서치 및 이니셜 데이터 검토</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.08</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천알고리즘 리서치 및 구현 명세</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.19</t>
+  </si>
+  <si>
+    <r>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로드맵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업무분담</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+  </si>
+  <si>
+    <t>개발회의</t>
+  </si>
+  <si>
+    <t>2019.11.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 개발</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.29</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 알고리즘 구현 검토</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 추천 알고리즘 부분 작성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 피드백 및 추천 알고리즘 부분 수정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER 다이어그램 수정 및 추천 피드백 반영 로직 구상</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 수정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>2019.11.20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>개발회의</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.11.19</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발 로드맵 및 업무분담 회의</t>
+    <t>추천 알고리즘 초기 가중치 값 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 회의 및 테스트 케이스 작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 케이스 작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.06</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
@@ -347,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,12 +655,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -390,36 +671,8 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C80AD6F9-171C-4C48-A97C-A1B3DD26C776}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -632,24 +885,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -726,7 +979,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="11">
@@ -741,12 +994,12 @@
       <c r="E7" s="9">
         <v>100</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="11">
@@ -766,7 +1019,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="11">
@@ -781,12 +1034,12 @@
       <c r="E9" s="12">
         <v>75</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="11">
@@ -801,12 +1054,12 @@
       <c r="E10" s="12">
         <v>80</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="11">
@@ -821,12 +1074,12 @@
       <c r="E11" s="12">
         <v>75</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="11">
@@ -841,12 +1094,12 @@
       <c r="E12" s="12">
         <v>90</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="11">
@@ -861,197 +1114,417 @@
       <c r="E13" s="12">
         <v>180</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
+    <row r="14" spans="1:6" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2400</v>
+      </c>
+      <c r="D14" s="12">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12">
+        <v>100</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1900</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>60</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2130</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2230</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>60</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="11">
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2330</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>90</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2400</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>120</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1900</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>240</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2200</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>120</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2300</v>
+      </c>
+      <c r="D21" s="12">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12">
+        <v>240</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2100</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2300</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>120</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2400</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>120</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11">
         <v>1330</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C24" s="11">
         <v>1445</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D24" s="12">
         <v>10</v>
       </c>
-      <c r="E16" s="12">
-        <v>95</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="E24" s="12">
+        <v>65</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2200</v>
+      </c>
+      <c r="D25" s="12">
+        <v>60</v>
+      </c>
+      <c r="E25" s="12">
+        <v>180</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1330</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1445</v>
+      </c>
+      <c r="D26" s="12">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12">
+        <v>55</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1900</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2300</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>240</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1330</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1445</v>
+      </c>
+      <c r="D28" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="E28" s="12">
+        <v>45</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1330</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1445</v>
+      </c>
+      <c r="D29" s="12">
+        <v>30</v>
+      </c>
+      <c r="E29" s="12">
+        <v>45</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2100</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>60</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1600</v>
+      </c>
+      <c r="C31" s="11">
         <v>1800</v>
       </c>
-      <c r="C17" s="11">
-        <v>2200</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="D31" s="12">
+        <v>30</v>
+      </c>
+      <c r="E31" s="12">
+        <v>90</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1330</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1445</v>
+      </c>
+      <c r="D32" s="12">
+        <v>20</v>
+      </c>
+      <c r="E32" s="12">
+        <v>55</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1600</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1800</v>
+      </c>
+      <c r="D33" s="12">
+        <v>30</v>
+      </c>
+      <c r="E33" s="12">
+        <v>90</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="12">
-        <v>180</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1500</v>
+      </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -1072,6 +1545,54 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
